--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LINE chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF87AED-9472-426E-A4F5-8BFD6978F2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA4AB5-3EA7-4868-8B56-95F34F2299B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>user_id</t>
   </si>
@@ -62,23 +62,22 @@
     <t>U0200750ca05fa7c0881a78ab1f3b3f55</t>
   </si>
   <si>
-    <t>Nhớ đặt hàng nha bạn ơi [Test]</t>
-  </si>
-  <si>
     <t>Uce2892a8a95a90616d287c1850036db2</t>
   </si>
   <si>
     <t>Minh Ngọc - 239292</t>
   </si>
   <si>
-    <t>Hôm nay có đặt hàng khai trương sản phẩm CHUỐI GIÀ GIỐNG NAM MỸ, hãy vào App để đặt hàng nhé.
-Mọi lỗi lầm liên hệ Như - 200573</t>
-  </si>
-  <si>
     <t>Uf1132922b13bd4f00f0a4947300dda74</t>
   </si>
   <si>
     <t>Anh Tài</t>
+  </si>
+  <si>
+    <t>Good morning!</t>
+  </si>
+  <si>
+    <t>Minh Đức - 182602</t>
   </si>
 </sst>
 </file>
@@ -149,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,9 +157,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,7 +443,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +457,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -476,10 +472,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -487,39 +483,42 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="3">
-        <v>45940</v>
+        <v>45941</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" s="3">
+        <v>45941</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3">
-        <v>45940</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45941</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3">
-        <v>45940</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LINE chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA4AB5-3EA7-4868-8B56-95F34F2299B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E428A56-899A-42DB-910A-145EEF73CF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
